--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12600"/>
+    <workbookView windowWidth="22905" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>corp_cn</t>
   </si>
@@ -37,52 +37,106 @@
     <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577684916_5e098fb4d9674.jpg</t>
   </si>
   <si>
-    <t>张三-zhangsan</t>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577684925_5e098fbdf1b34.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577685536_5e0992206027e.jpg</t>
   </si>
   <si>
     <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577685552_5e0992304509e.jpg</t>
   </si>
   <si>
-    <t>李四-lisi</t>
-  </si>
-  <si>
     <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577692419_5e09ad034db5c.jpg</t>
   </si>
   <si>
-    <t>长虹-changhong</t>
-  </si>
-  <si>
     <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577692450_5e09ad22605f4.jpg</t>
   </si>
   <si>
-    <t>王方言-wangfangyan</t>
-  </si>
-  <si>
     <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577692580_5e09ada492bac.jpg</t>
   </si>
   <si>
-    <t>苏婷-suting</t>
-  </si>
-  <si>
     <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577692585_5e09ada922fe6.jpg</t>
   </si>
   <si>
-    <t>陆雨婷-luyuting</t>
-  </si>
-  <si>
     <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577693997_5e09b32d95852.jpg</t>
   </si>
   <si>
-    <t>王柳-wangliu</t>
-  </si>
-  <si>
     <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577700069_5e09cae5b952f.jpg</t>
   </si>
   <si>
-    <t>张七-zhangqi</t>
-  </si>
-  <si>
     <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577700090_5e09cafa0c4e5.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577700096_5e09cb001fee0.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577700104_5e09cb0812fef.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577700109_5e09cb0d6fbb7.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577700114_5e09cb1218d50.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772378_5e0ae55a22ce4.jpg</t>
+  </si>
+  <si>
+    <t>MQ1108M52N6F3</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772394_5e0ae56a2418e.jpg</t>
+  </si>
+  <si>
+    <t>MQ1108M52FEE3</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772420_5e0ae5844c2d4.jpg</t>
+  </si>
+  <si>
+    <t>MAA118823000B</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772436_5e0ae5945e5ba.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772453_5e0ae5a578d39.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772460_5e0ae5ac31e3b.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772493_5e0ae5cd490a5.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772539_5e0ae5fb3ae85.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772545_5e0ae601cea47.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772546_5e0ae6021ba75.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772552_5e0ae6080c0ef.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772554_5e0ae60ae868a.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772559_5e0ae60f08052.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772564_5e0ae6146bcd2.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577773358_5e0ae92e5b20f.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577774744_5e0aee986a2f4.jpg</t>
+  </si>
+  <si>
+    <t>https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577784523_5e0b14cb6ff04.jpg</t>
   </si>
 </sst>
 </file>
@@ -90,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -128,6 +182,66 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -135,28 +249,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +271,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -178,14 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -193,66 +307,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -263,37 +317,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,145 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,27 +513,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,17 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -521,6 +563,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,225 +608,210 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
@@ -1053,19 +1107,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C11"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="111.5703125" customWidth="1"/>
+    <col min="3" max="3" width="111.571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1079,7 +1133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="16.8" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1101,15 +1155,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="16.8" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1117,10 +1171,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1128,10 +1182,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1139,10 +1193,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1150,10 +1204,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1161,10 +1215,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1172,10 +1226,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1183,25 +1237,275 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" ht="16.8" spans="3:3">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="22" ht="16.8" spans="3:3">
-      <c r="C22" s="3"/>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577684898_5e098fa20c736.jpg"/>
     <hyperlink ref="C3" r:id="rId2" display="https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577684916_5e098fb4d9674.jpg"/>
+    <hyperlink ref="C12" r:id="rId3" display="https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577700069_5e09cae5b952f.jpg"/>
+    <hyperlink ref="C22" r:id="rId4" display="https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577772453_5e0ae5a578d39.jpg"/>
+    <hyperlink ref="C4" r:id="rId5" display="https://dingzhi.cmcm.com/static/party_face/zqPLZezDHxmTzyc-xnPjCg/2019.12/1577684925_5e098fbdf1b34.jpg"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
